--- a/public/default/Mau_Upload_Bang_Luong.xlsx
+++ b/public/default/Mau_Upload_Bang_Luong.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quangqa/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328D8B23-7A42-3148-BEF8-31D36CCE5BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77FF9ED-EB3C-0149-9412-1E9F3D791D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -209,9 +209,6 @@
     <t>SP Aurenda</t>
   </si>
   <si>
-    <t>Tổng cộng</t>
-  </si>
-  <si>
     <t>Tạm ứng</t>
   </si>
   <si>
@@ -374,7 +371,10 @@
     <t>0</t>
   </si>
   <si>
-    <t>Bắt buộc phải có cột mã nhân viên và tổng cộng</t>
+    <t>Tổng tiền</t>
+  </si>
+  <si>
+    <t>Bắt buộc phải có cột mã nhân viên và tổng tiền</t>
   </si>
 </sst>
 </file>
@@ -1333,51 +1333,51 @@
         <v>30</v>
       </c>
       <c r="AF1" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="16" t="s">
+      <c r="AH1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="16" t="s">
+      <c r="AI1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="16" t="s">
+      <c r="AJ1" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK1" s="16" t="s">
+      <c r="AL1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="16" t="s">
+      <c r="AM1" s="17" t="s">
         <v>36</v>
-      </c>
-      <c r="AM1" s="17" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="24" customHeight="1">
       <c r="A2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>43</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="7">
         <v>15000000</v>
@@ -1433,13 +1433,13 @@
         <v>23051764.444444444</v>
       </c>
       <c r="AG2" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH2" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI2" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AJ2" s="7">
         <v>0</v>
@@ -1454,25 +1454,25 @@
     </row>
     <row r="3" spans="1:39" ht="24" customHeight="1">
       <c r="A3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="E3" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>48</v>
-      </c>
       <c r="F3" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="7">
         <v>6000000</v>
@@ -1528,13 +1528,13 @@
         <v>7890000</v>
       </c>
       <c r="AG3" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH3" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI3" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AJ3" s="7">
         <v>0</v>
@@ -1549,25 +1549,25 @@
     </row>
     <row r="4" spans="1:39" ht="24" customHeight="1">
       <c r="A4" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="C4" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="22" t="s">
+      <c r="E4" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="F4" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="24" t="s">
-        <v>66</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H4" s="7">
         <v>6500000</v>
@@ -1619,13 +1619,13 @@
         <v>2125925.9259259258</v>
       </c>
       <c r="AG4" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH4" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI4" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AJ4" s="7"/>
       <c r="AK4" s="8">
@@ -1638,25 +1638,25 @@
     </row>
     <row r="5" spans="1:39" ht="24" customHeight="1">
       <c r="A5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="E5" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="25" t="s">
-        <v>53</v>
-      </c>
       <c r="F5" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="7">
         <v>5000000</v>
@@ -1718,13 +1718,13 @@
         <v>11610500</v>
       </c>
       <c r="AG5" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH5" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI5" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AJ5" s="7">
         <v>800000</v>
@@ -1739,25 +1739,25 @@
     </row>
     <row r="6" spans="1:39" ht="24" customHeight="1">
       <c r="A6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="19" t="s">
+      <c r="E6" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>57</v>
-      </c>
       <c r="F6" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="7">
         <v>5000000</v>
@@ -1815,13 +1815,13 @@
         <v>8204250</v>
       </c>
       <c r="AG6" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH6" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI6" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AJ6" s="7">
         <v>800000</v>
@@ -1836,25 +1836,25 @@
     </row>
     <row r="7" spans="1:39" ht="24" customHeight="1">
       <c r="A7" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="C7" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="22" t="s">
+      <c r="E7" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="23" t="s">
-        <v>70</v>
-      </c>
       <c r="F7" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H7" s="7">
         <v>4800000</v>
@@ -1910,13 +1910,13 @@
         <v>3402666.6666666665</v>
       </c>
       <c r="AG7" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH7" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI7" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AJ7" s="7"/>
       <c r="AK7" s="8">
@@ -1929,22 +1929,22 @@
     </row>
     <row r="8" spans="1:39" ht="18.75" customHeight="1">
       <c r="A8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="D8" s="28">
         <v>1996666999</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -1993,13 +1993,13 @@
         <v>3912224</v>
       </c>
       <c r="AG8" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH8" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI8" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AJ8" s="7">
         <v>0</v>
@@ -2014,22 +2014,22 @@
     </row>
     <row r="9" spans="1:39" ht="18.75" customHeight="1">
       <c r="A9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="E9" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>75</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -2066,13 +2066,13 @@
         <v>850000</v>
       </c>
       <c r="AG9" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH9" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI9" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AJ9" s="8"/>
       <c r="AK9" s="8">
@@ -2085,22 +2085,22 @@
     </row>
     <row r="10" spans="1:39" ht="18.75" customHeight="1">
       <c r="A10" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="E10" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -2135,13 +2135,13 @@
         <v>25000</v>
       </c>
       <c r="AG10" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH10" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI10" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AJ10" s="8"/>
       <c r="AK10" s="8">
